--- a/GIT.xlsx
+++ b/GIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyance\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\BTP\BTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,7 +438,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
